--- a/docs/Extension-CareConnect-AllergyIntoleranceEnd-1.xlsx
+++ b/docs/Extension-CareConnect-AllergyIntoleranceEnd-1.xlsx
@@ -303,7 +303,7 @@
     <t>The reason why the allergy or intolerance has been resolved</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-AllergyIntoleranceEnd-1</t>
+    <t>https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-AllergyIntoleranceEnd-1</t>
   </si>
   <si>
     <t>base64Binary
